--- a/data/output/FV2504_FV2410/IFTSTA/21045.xlsx
+++ b/data/output/FV2504_FV2410/IFTSTA/21045.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="228">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="228">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -806,6 +806,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U129" totalsRowShown="0">
+  <autoFilter ref="A1:U129"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,7 +1125,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7475,5 +7508,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/IFTSTA/21045.xlsx
+++ b/data/output/FV2504_FV2410/IFTSTA/21045.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="357">
   <si>
     <t>#</t>
   </si>
@@ -6450,52 +6450,50 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N93" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O93" s="5" t="s">
+      <c r="N93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5" t="s">
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V93" s="5"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6527,9 +6525,7 @@
         <v>201</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>32</v>
       </c>
@@ -6587,9 +6583,7 @@
         <v>201</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>32</v>
       </c>
@@ -6618,52 +6612,50 @@
       <c r="V95" s="5"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="C96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N96" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O96" s="5" t="s">
+      <c r="N96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5" t="s">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V96" s="5"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6695,9 +6687,7 @@
         <v>201</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>33</v>
       </c>
@@ -6753,9 +6743,7 @@
         <v>201</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>33</v>
       </c>
@@ -6811,9 +6799,7 @@
         <v>201</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>33</v>
       </c>
@@ -6842,44 +6828,42 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M100" s="5" t="s">
+      <c r="K100" s="2"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V100" s="5"/>
+      <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -6905,9 +6889,7 @@
         <v>200</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>34</v>
       </c>
@@ -6959,9 +6941,7 @@
         <v>201</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>34</v>
       </c>
@@ -6990,52 +6970,50 @@
       <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M103" s="5" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O103" s="5" t="s">
+      <c r="O103" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5" t="s">
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V103" s="5"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -7067,9 +7045,7 @@
         <v>201</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>35</v>
       </c>
@@ -7125,9 +7101,7 @@
         <v>201</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>35</v>
       </c>
@@ -7183,9 +7157,7 @@
         <v>201</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>35</v>
       </c>
@@ -7214,52 +7186,50 @@
       <c r="V106" s="5"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5" t="s">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M107" s="5" t="s">
+      <c r="K107" s="2"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O107" s="5" t="s">
+      <c r="O107" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5" t="s">
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5" t="s">
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V107" s="5"/>
+      <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7291,9 +7261,7 @@
         <v>201</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>36</v>
       </c>
@@ -7349,9 +7317,7 @@
         <v>201</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>36</v>
       </c>
@@ -7407,9 +7373,7 @@
         <v>201</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>36</v>
       </c>
@@ -7438,52 +7402,50 @@
       <c r="V110" s="5"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5" t="s">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="s">
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M111" s="5" t="s">
+      <c r="K111" s="2"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O111" s="5" t="s">
+      <c r="O111" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5" t="s">
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5" t="s">
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V111" s="5"/>
+      <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7515,9 +7477,7 @@
         <v>201</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>37</v>
       </c>
@@ -7573,9 +7533,7 @@
         <v>201</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>37</v>
       </c>
@@ -7631,9 +7589,7 @@
         <v>201</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>37</v>
       </c>
@@ -7662,44 +7618,42 @@
       <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M115" s="5" t="s">
+      <c r="K115" s="2"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V115" s="5"/>
+      <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -7725,9 +7679,7 @@
         <v>200</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>38</v>
       </c>
@@ -7775,9 +7727,7 @@
         <v>213</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>38</v>
       </c>
@@ -7829,9 +7779,7 @@
         <v>201</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>38</v>
       </c>
@@ -7887,9 +7835,7 @@
         <v>201</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>38</v>
       </c>
@@ -7945,9 +7891,7 @@
         <v>201</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>38</v>
       </c>
@@ -7974,46 +7918,44 @@
       <c r="V120" s="5"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5" t="s">
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K121" s="5" t="s">
+      <c r="K121" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L121" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M121" s="5" t="s">
+      <c r="L121" s="4"/>
+      <c r="M121" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N121" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5" t="s">
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="V121" s="5" t="s">
+      <c r="V121" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8041,9 +7983,7 @@
         <v>200</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>39</v>
       </c>
@@ -8095,9 +8035,7 @@
       <c r="K123" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="L123" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>39</v>
       </c>
@@ -8126,52 +8064,50 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
+      <c r="E124" s="2"/>
+      <c r="F124" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5" t="s">
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M124" s="5" t="s">
+      <c r="K124" s="2"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O124" s="5" t="s">
+      <c r="O124" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5" t="s">
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5" t="s">
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V124" s="5"/>
+      <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="5" t="s">
@@ -8201,9 +8137,7 @@
         <v>216</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>40</v>
       </c>
@@ -8257,9 +8191,7 @@
         <v>201</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>40</v>
       </c>

--- a/data/output/FV2504_FV2410/IFTSTA/21045.xlsx
+++ b/data/output/FV2504_FV2410/IFTSTA/21045.xlsx
@@ -1650,7 +1650,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7940,7 +7940,7 @@
         <v>222</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8088,7 +8088,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8218,48 +8218,48 @@
       <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5" t="s">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5" t="s">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K127" s="5"/>
+      <c r="K127" s="2"/>
       <c r="L127" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M127" s="5" t="s">
+      <c r="M127" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5" t="s">
+      <c r="N127" s="2"/>
+      <c r="O127" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P127" s="5"/>
+      <c r="P127" s="2"/>
       <c r="Q127" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5" t="s">
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="V127" s="5"/>
+      <c r="V127" s="2"/>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="5" t="s">
